--- a/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.link` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.link` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.link` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.link.relation` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relation` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.link.relation` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relation.id</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.link.relatedDevice` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relatedDevice` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.link.relatedDevice` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.id</t>
@@ -498,7 +498,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:concept.id</t>
@@ -529,7 +529,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="128.56640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.57421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.link` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.link` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.link` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.link.relation` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relation` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.link.relation` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relation.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link.relation</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.link.relatedDevice` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relatedDevice` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.link.relatedDevice` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.id</t>
@@ -497,8 +500,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:concept.id</t>
@@ -529,8 +532,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:reference.id</t>
@@ -550,6 +553,9 @@
   </si>
   <si>
     <t>Extension.extension:relatedDevice.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link.relatedDevice</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.value[x]</t>
@@ -896,7 +902,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.57421875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1702,7 +1708,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1744,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1759,15 +1765,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1790,7 +1796,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1847,7 +1853,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1859,21 +1865,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1898,14 +1904,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2180,13 +2186,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2211,10 +2217,10 @@
         <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2285,10 +2291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2388,10 +2394,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2493,10 +2499,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2536,7 +2542,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2578,7 +2584,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2593,15 +2599,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2627,13 +2633,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2641,7 +2647,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2683,7 +2689,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2695,21 +2701,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2734,14 +2740,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2810,10 +2816,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2913,10 +2919,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3018,10 +3024,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3061,7 +3067,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3103,7 +3109,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3118,15 +3124,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3149,13 +3155,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3206,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3218,21 +3224,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3257,14 +3263,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3333,10 +3339,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3436,10 +3442,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3541,10 +3547,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3584,7 +3590,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3626,7 +3632,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3641,15 +3647,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3672,13 +3678,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3729,7 +3735,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3741,15 +3747,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3792,7 +3798,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3834,7 +3840,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3849,15 +3855,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3880,13 +3886,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3937,7 +3943,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3949,18 +3955,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4042,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -4057,15 +4063,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4088,13 +4094,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4145,7 +4151,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4157,10 +4163,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -500,8 +500,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:concept.id</t>
@@ -532,8 +531,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:reference.id</t>
@@ -548,7 +546,7 @@
     <t>Extension.extension:relatedDevice.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.link.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The type indicates the relationship of the related device to the device instance.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.link.relation` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relation` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.link.relation` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relation.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link.relation</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -408,6 +404,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The type of relation between this and the linked device.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-devicedefinition-relationtype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -427,8 +432,7 @@
     <t>A reference to the linked device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.link.relatedDevice` is part of an existing definition because parent element `DeviceDefinition.link` requires a cross-version extension.
-Element `DeviceDefinition.link.relatedDevice` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.link.relatedDevice` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.id</t>
@@ -500,7 +504,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:concept.id</t>
@@ -531,7 +535,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.extension:reference.id</t>
@@ -546,14 +550,11 @@
     <t>Extension.extension:relatedDevice.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.link.relatedDevice</t>
   </si>
   <si>
     <t>Extension.extension:relatedDevice.value[x]</t>
@@ -910,8 +911,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.1015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1706,72 +1707,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1794,7 +1795,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1827,13 +1828,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1851,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1863,21 +1864,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1902,14 +1903,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1978,7 +1979,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2081,7 +2082,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2184,13 +2185,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2215,10 +2216,10 @@
         <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2289,10 +2290,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2392,10 +2393,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2497,10 +2498,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2540,7 +2541,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2582,30 +2583,30 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2631,13 +2632,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2645,7 +2646,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2687,7 +2688,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2699,21 +2700,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2738,14 +2739,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2814,10 +2815,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2917,10 +2918,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3022,10 +3023,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3065,7 +3066,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3107,30 +3108,30 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3153,13 +3154,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3210,7 +3211,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3222,21 +3223,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3261,14 +3262,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3337,10 +3338,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3440,10 +3441,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3545,10 +3546,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3588,7 +3589,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3630,30 +3631,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3676,13 +3677,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3733,7 +3734,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3745,15 +3746,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3796,7 +3797,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3838,30 +3839,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3884,13 +3885,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3941,7 +3942,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3953,18 +3954,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4046,30 +4047,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4092,13 +4093,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4149,7 +4150,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4161,10 +4162,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
